--- a/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9AA545-CC3E-4845-A7CB-DB2897B3C98B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41B973A-0214-4116-BB5C-A6BBBFEF3364}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSheet" sheetId="1" r:id="rId1"/>
@@ -26,21 +26,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Hellox</t>
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Entry Number</t>
+  </si>
+  <si>
+    <t>Configuration Setting based on selected profile</t>
+  </si>
+  <si>
+    <t>Logon Time</t>
+  </si>
+  <si>
+    <t>Log off Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -67,11 +116,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -87,6 +142,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDE1A4C5-061C-43EA-ADC6-B5CD97D5E7D8}" name="Table1" displayName="Table1" ref="D6:K17" totalsRowShown="0">
+  <autoFilter ref="D6:K17" xr:uid="{7727B2C7-FEA4-4E9A-9590-ABAFEDAEFA77}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{0A112037-4C39-4D68-BD85-A8A215975DC9}" name="Entry Number"/>
+    <tableColumn id="2" xr3:uid="{DA79E2A6-F69E-45AC-9D5F-27D49029A3A0}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{1F998F12-E102-46D2-A2EB-94C412185715}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{ECF9A39A-6204-45EB-A08D-E74E5E8B8C97}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{2649D2A2-C3C7-4D42-949D-603878DA82E8}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{FDD334A8-483F-40B4-A991-C93EB312C38C}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{BE7BF73F-5ED5-4857-9545-084D93B693E0}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{46079366-C496-42A8-AC15-91D1FC6AC40A}" name="Column8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,35 +458,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D93A5A3-44B6-4C9B-AD12-9F7B6D444A69}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E5" s="1">
         <v>0.90640046296296306</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E6" s="2">
         <v>0.90625</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E7" s="3">
         <v>0.90625</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" s="2">
         <v>0.90625</v>
       </c>
@@ -426,20 +506,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A979B717-B8FF-48BA-A94D-3D97F4E204C9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="11" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:K4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC-ForWork-master\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41B973A-0214-4116-BB5C-A6BBBFEF3364}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{68C2B790-94FC-498E-9091-0DF1358A97FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DataSheet" sheetId="1" r:id="rId1"/>
     <sheet name="ConfigurationSheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -458,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D93A5A3-44B6-4C9B-AD12-9F7B6D444A69}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -481,22 +481,38 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E5" s="1">
-        <v>0.90640046296296306</v>
+        <v>0.35945601851851849</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E6" s="2">
-        <v>0.90625</v>
+        <v>0.35902777777777778</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>0.54495370370370366</v>
+      </c>
       <c r="E7" s="3">
-        <v>0.90625</v>
+        <v>0.35902777777777778</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <v>0.5444444444444444</v>
+      </c>
       <c r="E8" s="2">
-        <v>0.90625</v>
+        <v>0.35902777777777778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <v>0.5444444444444444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
+        <v>0.5444444444444444</v>
       </c>
     </row>
   </sheetData>

--- a/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC-ForWork-master\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{68C2B790-94FC-498E-9091-0DF1358A97FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F5D3AF8A-7505-4B1D-9D7F-F574C9F016BC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Hellox</t>
   </si>
@@ -34,27 +34,6 @@
     <t>test</t>
   </si>
   <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Column5</t>
-  </si>
-  <si>
-    <t>Column6</t>
-  </si>
-  <si>
-    <t>Column7</t>
-  </si>
-  <si>
-    <t>Column8</t>
-  </si>
-  <si>
     <t>Entry Number</t>
   </si>
   <si>
@@ -65,6 +44,21 @@
   </si>
   <si>
     <t>Log off Time</t>
+  </si>
+  <si>
+    <t>Work time</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>week day by number</t>
+  </si>
+  <si>
+    <t>Entry Nr</t>
+  </si>
+  <si>
+    <t>Break</t>
   </si>
 </sst>
 </file>
@@ -116,11 +110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -142,23 +137,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDE1A4C5-061C-43EA-ADC6-B5CD97D5E7D8}" name="Table1" displayName="Table1" ref="D6:K17" totalsRowShown="0">
-  <autoFilter ref="D6:K17" xr:uid="{7727B2C7-FEA4-4E9A-9590-ABAFEDAEFA77}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0A112037-4C39-4D68-BD85-A8A215975DC9}" name="Entry Number"/>
-    <tableColumn id="2" xr3:uid="{DA79E2A6-F69E-45AC-9D5F-27D49029A3A0}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{1F998F12-E102-46D2-A2EB-94C412185715}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{ECF9A39A-6204-45EB-A08D-E74E5E8B8C97}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{2649D2A2-C3C7-4D42-949D-603878DA82E8}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{FDD334A8-483F-40B4-A991-C93EB312C38C}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{BE7BF73F-5ED5-4857-9545-084D93B693E0}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{46079366-C496-42A8-AC15-91D1FC6AC40A}" name="Column8"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,13 +436,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D93A5A3-44B6-4C9B-AD12-9F7B6D444A69}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -472,11 +454,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -490,6 +475,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="D7" s="1">
         <v>0.54495370370370366</v>
       </c>
@@ -498,21 +486,69 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="D8" s="2">
         <v>0.5444444444444444</v>
       </c>
       <c r="E8" s="2">
-        <v>0.35902777777777778</v>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="F8" s="4">
+        <v>43558</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>3</v>
+      </c>
       <c r="D9" s="3">
         <v>0.5444444444444444</v>
       </c>
+      <c r="E9" s="2">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="F9" s="4">
+        <v>43558</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>4</v>
+      </c>
       <c r="D10" s="2">
         <v>0.5444444444444444</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="F10" s="4">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="F11" s="4">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="2">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="F12" s="4">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="4">
+        <v>43558</v>
       </c>
     </row>
   </sheetData>
@@ -522,15 +558,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A979B717-B8FF-48BA-A94D-3D97F4E204C9}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:K7"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="11" width="11" customWidth="1"/>
   </cols>
@@ -539,76 +575,80 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="J6" t="s">
+      <c r="E8">
+        <v>480</v>
+      </c>
+      <c r="F8" t="s">
         <v>7</v>
       </c>
-      <c r="K6" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D7">
+      <c r="E10">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -617,8 +657,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC-ForWork-master\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F5D3AF8A-7505-4B1D-9D7F-F574C9F016BC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BE9F2445-B61B-46A5-8BB7-85C0C6208039}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSheet" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Hellox</t>
   </si>
@@ -59,6 +59,24 @@
   </si>
   <si>
     <t>Break</t>
+  </si>
+  <si>
+    <t>Adrian Marian Naziru</t>
+  </si>
+  <si>
+    <t>sUserName</t>
+  </si>
+  <si>
+    <t>intEntryNumber</t>
+  </si>
+  <si>
+    <t>intWorkingMinutes</t>
+  </si>
+  <si>
+    <t>intBrakeTime</t>
+  </si>
+  <si>
+    <t>intDayOfTheWeek</t>
   </si>
 </sst>
 </file>
@@ -438,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D93A5A3-44B6-4C9B-AD12-9F7B6D444A69}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -493,10 +511,10 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="E8" s="2">
-        <v>0.71666666666666667</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="F8" s="4">
-        <v>43558</v>
+        <v>43649</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -507,10 +525,10 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="E9" s="2">
-        <v>0.71666666666666667</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="F9" s="4">
-        <v>43558</v>
+        <v>43649</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -521,10 +539,10 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="E10" s="2">
-        <v>0.71666666666666667</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="F10" s="4">
-        <v>43558</v>
+        <v>43649</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -532,18 +550,18 @@
         <v>5</v>
       </c>
       <c r="E11" s="2">
-        <v>0.71666666666666667</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="F11" s="4">
-        <v>43558</v>
+        <v>43649</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E12" s="2">
-        <v>0.71666666666666667</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="F12" s="4">
-        <v>43558</v>
+        <v>43649</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -558,17 +576,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A979B717-B8FF-48BA-A94D-3D97F4E204C9}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="11" width="11" customWidth="1"/>
+    <col min="6" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -642,6 +663,20 @@
       <c r="E10">
         <v>1</v>
       </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
@@ -649,6 +684,28 @@
       </c>
       <c r="E12">
         <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC-ForWork-master\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BE9F2445-B61B-46A5-8BB7-85C0C6208039}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1C4C40F7-D8F9-4F7D-A8E2-AE2F167CD685}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
@@ -675,7 +675,7 @@
         <v>13</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">

--- a/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC-ForWork-master\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1C4C40F7-D8F9-4F7D-A8E2-AE2F167CD685}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B8844B-AD1A-404E-A180-7BA86AEC15F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSheet" sheetId="1" r:id="rId1"/>
@@ -675,7 +675,7 @@
         <v>13</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">

--- a/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B8844B-AD1A-404E-A180-7BA86AEC15F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8BF89E-D067-4566-B6F7-3028011B6810}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
+    <workbookView xWindow="4080" yWindow="990" windowWidth="15375" windowHeight="9240" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSheet" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Hellox</t>
   </si>
@@ -77,12 +77,24 @@
   </si>
   <si>
     <t>intDayOfTheWeek</t>
+  </si>
+  <si>
+    <t>SEntryTime</t>
+  </si>
+  <si>
+    <t>STodayData</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,12 +140,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -454,15 +473,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D93A5A3-44B6-4C9B-AD12-9F7B6D444A69}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="5"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -478,18 +498,11 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E5" s="1">
-        <v>0.35945601851851849</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E6" s="2">
-        <v>0.35902777777777778</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -497,89 +510,94 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>0.54495370370370366</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.35902777777777778</v>
+        <v>0.26458333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="2">
-        <v>0.5444444444444444</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.48819444444444443</v>
-      </c>
-      <c r="F8" s="4">
-        <v>43649</v>
+      <c r="D8" s="1">
+        <v>0.93472222222222223</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43741</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="3">
-        <v>0.5444444444444444</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.48819444444444443</v>
-      </c>
-      <c r="F9" s="4">
-        <v>43649</v>
+      <c r="D9" s="1">
+        <v>0.93472222222222223</v>
+      </c>
+      <c r="E9" s="5">
+        <v>43741</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>4</v>
       </c>
-      <c r="D10" s="2">
-        <v>0.5444444444444444</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.48888888888888887</v>
-      </c>
-      <c r="F10" s="4">
-        <v>43649</v>
+      <c r="D10" s="1">
+        <v>0.93541666666666667</v>
+      </c>
+      <c r="E10" s="5">
+        <v>43741</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="E11" s="2">
-        <v>0.48888888888888887</v>
-      </c>
-      <c r="F11" s="4">
-        <v>43649</v>
+      <c r="D11" s="1">
+        <v>0.30624999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="2">
-        <v>0.48888888888888887</v>
-      </c>
-      <c r="F12" s="4">
-        <v>43649</v>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.34791666666666665</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F13" s="4">
-        <v>43558</v>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.89861111111111114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.93402777777777779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.93402777777777779</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A979B717-B8FF-48BA-A94D-3D97F4E204C9}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,53 +607,54 @@
     <col min="6" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="4.5703125" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="11" width="11" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
@@ -656,6 +675,9 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="2"/>
+    </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>8</v>
@@ -666,7 +688,7 @@
       <c r="I10" t="s">
         <v>12</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -674,8 +696,8 @@
       <c r="I11" t="s">
         <v>13</v>
       </c>
-      <c r="J11">
-        <v>7</v>
+      <c r="J11" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -688,7 +710,7 @@
       <c r="I12" t="s">
         <v>14</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>480</v>
       </c>
     </row>
@@ -696,7 +718,7 @@
       <c r="I13" t="s">
         <v>15</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <v>45</v>
       </c>
     </row>
@@ -704,8 +726,24 @@
       <c r="I14" t="s">
         <v>16</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.93958333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="4">
+        <v>43741</v>
       </c>
     </row>
   </sheetData>

--- a/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC-ForWork-master\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8BF89E-D067-4566-B6F7-3028011B6810}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{12065986-6FB1-4811-B66B-3C9BE9A4B133}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="990" windowWidth="15375" windowHeight="9240" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
+    <workbookView xWindow="4080" yWindow="990" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSheet" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Hellox</t>
   </si>
@@ -34,33 +34,12 @@
     <t>test</t>
   </si>
   <si>
-    <t>Entry Number</t>
-  </si>
-  <si>
     <t>Configuration Setting based on selected profile</t>
   </si>
   <si>
-    <t>Logon Time</t>
-  </si>
-  <si>
     <t>Log off Time</t>
   </si>
   <si>
-    <t>Work time</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>week day by number</t>
-  </si>
-  <si>
-    <t>Entry Nr</t>
-  </si>
-  <si>
-    <t>Break</t>
-  </si>
-  <si>
     <t>Adrian Marian Naziru</t>
   </si>
   <si>
@@ -86,6 +65,12 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Nr</t>
   </si>
 </sst>
 </file>
@@ -475,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D93A5A3-44B6-4C9B-AD12-9F7B6D444A69}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,16 +478,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -510,7 +495,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>0.26458333333333334</v>
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43772</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -518,10 +506,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>0.93472222222222223</v>
+        <v>0.63750000000000007</v>
       </c>
       <c r="E8" s="5">
-        <v>43741</v>
+        <v>43772</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -529,10 +517,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>0.93472222222222223</v>
+        <v>0.63750000000000007</v>
       </c>
       <c r="E9" s="5">
-        <v>43741</v>
+        <v>43772</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -540,10 +528,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>0.93541666666666667</v>
+        <v>0.63750000000000007</v>
       </c>
       <c r="E10" s="5">
-        <v>43741</v>
+        <v>43772</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -551,7 +539,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>0.30624999999999997</v>
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="E11" s="5">
+        <v>43772</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -559,32 +550,20 @@
         <v>6</v>
       </c>
       <c r="D12" s="1">
-        <v>0.34791666666666665</v>
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="E12" s="5">
+        <v>43772</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.89861111111111114</v>
-      </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.93402777777777779</v>
-      </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.93402777777777779</v>
-      </c>
+      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -594,10 +573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A979B717-B8FF-48BA-A94D-3D97F4E204C9}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,144 +590,112 @@
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>480</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="J11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>45</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
       </c>
       <c r="J12" s="2">
         <v>480</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J13" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J14" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J15" s="3">
-        <v>0.93958333333333333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.63680555555555551</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J16" s="4">
-        <v>43741</v>
+        <v>43772</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:K4"/>
+    <mergeCell ref="G6:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC-ForWork-master\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{12065986-6FB1-4811-B66B-3C9BE9A4B133}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC0C5DE-EFDC-464C-AB6F-280C50D9B978}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="990" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
+    <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSheet" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Hellox</t>
   </si>
@@ -61,9 +61,6 @@
     <t>SEntryTime</t>
   </si>
   <si>
-    <t>STodayData</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -71,6 +68,12 @@
   </si>
   <si>
     <t>Nr</t>
+  </si>
+  <si>
+    <t>STodayDate</t>
+  </si>
+  <si>
+    <t>IntEntryDate</t>
   </si>
 </sst>
 </file>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -138,6 +141,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -458,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D93A5A3-44B6-4C9B-AD12-9F7B6D444A69}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:E13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,99 +475,169 @@
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>0.63750000000000007</v>
+        <v>0.91180555555555554</v>
       </c>
       <c r="E7" s="5">
         <v>43772</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>0.63750000000000007</v>
+        <v>0.90902777777777777</v>
       </c>
       <c r="E8" s="5">
         <v>43772</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>0.63750000000000007</v>
+        <v>0.90902777777777777</v>
       </c>
       <c r="E9" s="5">
         <v>43772</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>0.63750000000000007</v>
+        <v>0.90902777777777777</v>
       </c>
       <c r="E10" s="5">
         <v>43772</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>0.63750000000000007</v>
+        <v>0.90902777777777777</v>
       </c>
       <c r="E11" s="5">
         <v>43772</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>6</v>
       </c>
       <c r="D12" s="1">
-        <v>0.63750000000000007</v>
+        <v>0.90902777777777777</v>
       </c>
       <c r="E12" s="5">
         <v>43772</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.90902777777777777</v>
+      </c>
+      <c r="E13" s="5">
+        <v>43772</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.90902777777777777</v>
+      </c>
+      <c r="E14" s="5">
+        <v>43772</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.90902777777777777</v>
+      </c>
+      <c r="E15" s="5">
+        <v>43772</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -573,9 +647,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A979B717-B8FF-48BA-A94D-3D97F4E204C9}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -596,46 +670,46 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
@@ -650,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -682,15 +756,23 @@
         <v>10</v>
       </c>
       <c r="J15" s="3">
-        <v>0.63680555555555551</v>
+        <v>0.93819444444444444</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J16" s="4">
         <v>43772</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC0C5DE-EFDC-464C-AB6F-280C50D9B978}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB47C92-0E92-4321-96AC-EF003680298C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Hellox</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>IntEntryDate</t>
+  </si>
+  <si>
+    <t>IntOnlineTime</t>
   </si>
 </sst>
 </file>
@@ -617,26 +620,34 @@
       <c r="I16" s="1"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.93819444444444444</v>
+      </c>
+      <c r="E17" s="5">
+        <v>43802</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
     </row>
   </sheetData>
@@ -647,10 +658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A979B717-B8FF-48BA-A94D-3D97F4E204C9}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +735,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -756,7 +767,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="3">
-        <v>0.93819444444444444</v>
+        <v>0.95486111111111116</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -764,7 +775,7 @@
         <v>14</v>
       </c>
       <c r="J16" s="4">
-        <v>43772</v>
+        <v>43802</v>
       </c>
     </row>
     <row r="17" spans="9:10" x14ac:dyDescent="0.25">
@@ -772,7 +783,15 @@
         <v>15</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC-ForWork-master\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB47C92-0E92-4321-96AC-EF003680298C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0BDA5271-1E0A-4951-BEB7-D0520E92F3DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Hellox</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>IntOnlineTime</t>
+  </si>
+  <si>
+    <t>14 / 03 / 2019</t>
+  </si>
+  <si>
+    <t>SCurrentTask</t>
+  </si>
+  <si>
+    <t>http://buhev-jira.conti.de:7090/browse/HD</t>
   </si>
 </sst>
 </file>
@@ -86,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +119,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,10 +145,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -145,6 +163,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -152,7 +173,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -634,7 +656,15 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="6"/>
     </row>
@@ -658,20 +688,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A979B717-B8FF-48BA-A94D-3D97F4E204C9}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="7" width="11" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="4.5703125" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="38.140625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -681,46 +715,46 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
@@ -735,7 +769,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -767,15 +801,15 @@
         <v>10</v>
       </c>
       <c r="J15" s="3">
-        <v>0.95486111111111116</v>
+        <v>0.74861111111111101</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="4">
-        <v>43802</v>
+      <c r="J16" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="9:10" x14ac:dyDescent="0.25">
@@ -791,14 +825,25 @@
         <v>16</v>
       </c>
       <c r="J18">
-        <v>14</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G6:N9"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J19" r:id="rId1" xr:uid="{94B8B718-C5A6-4037-953F-2D135917B5EA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC-ForWork-master\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0BDA5271-1E0A-4951-BEB7-D0520E92F3DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A3D3ACDF-BD47-49A2-8A53-D48CD6B4D8EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Hellox</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>http://buhev-jira.conti.de:7090/browse/HD</t>
+  </si>
+  <si>
+    <t>15 / 03 / 2019</t>
   </si>
 </sst>
 </file>
@@ -691,7 +694,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="J13" s="2">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -801,7 +804,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="3">
-        <v>0.74861111111111101</v>
+        <v>0.5083333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -809,7 +812,7 @@
         <v>14</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="9:10" x14ac:dyDescent="0.25">
@@ -825,7 +828,7 @@
         <v>16</v>
       </c>
       <c r="J18">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="9:10" ht="45" x14ac:dyDescent="0.25">

--- a/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC-ForWork-master\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A3D3ACDF-BD47-49A2-8A53-D48CD6B4D8EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{560DD2D1-FA80-47A3-9325-5B5AB4E16940}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
@@ -804,7 +804,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="3">
-        <v>0.5083333333333333</v>
+        <v>0.74583333333333324</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -828,7 +828,7 @@
         <v>16</v>
       </c>
       <c r="J18">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="9:10" ht="45" x14ac:dyDescent="0.25">

--- a/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC-ForWork-master\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{560DD2D1-FA80-47A3-9325-5B5AB4E16940}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D8D933-3CBA-433B-821C-80E45BE1C603}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
@@ -88,7 +88,7 @@
     <t>http://buhev-jira.conti.de:7090/browse/HD</t>
   </si>
   <si>
-    <t>15 / 03 / 2019</t>
+    <t>18 / 03 / 2019</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,9 @@
         <v>43772</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="6">
+        <v>480</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13">
@@ -612,7 +614,9 @@
         <v>43772</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="6">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14">
@@ -669,7 +673,9 @@
         <v>17</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="6"/>
+      <c r="J18" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
@@ -804,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="3">
-        <v>0.74583333333333324</v>
+        <v>0.48819444444444443</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -828,7 +834,7 @@
         <v>16</v>
       </c>
       <c r="J18">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="9:10" ht="45" x14ac:dyDescent="0.25">

--- a/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
+++ b/WindowsFormsApp1/WindowsFormsApp1/bin/Debug/UtilityExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uia93155\Desktop\UtilityC-ForWork-master\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazir\Desktop\UtilityC#ForWork\WindowsFormsApp1\WindowsFormsApp1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D8D933-3CBA-433B-821C-80E45BE1C603}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F39504-6CA5-4C11-95CE-16D73E37C946}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="345" windowWidth="15375" windowHeight="9240" activeTab="1" xr2:uid="{7C01E360-6936-4246-B2D8-F3BCD694FB37}"/>
   </bookViews>
@@ -88,7 +88,7 @@
     <t>http://buhev-jira.conti.de:7090/browse/HD</t>
   </si>
   <si>
-    <t>18 / 03 / 2019</t>
+    <t>20 / 03 / 2019</t>
   </si>
 </sst>
 </file>
@@ -810,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="3">
-        <v>0.48819444444444443</v>
+        <v>0.84930555555555554</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
